--- a/Excel_Files/Pay_Grade.xlsx
+++ b/Excel_Files/Pay_Grade.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9707"/>
+    <workbookView windowWidth="23040" windowHeight="9707" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,12 +29,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Pay_Grade</t>
   </si>
   <si>
     <t>Grade100</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Part Full Time</t>
+  </si>
+  <si>
+    <t>Organization Name</t>
+  </si>
+  <si>
+    <t>Subam</t>
   </si>
 </sst>
 </file>
@@ -969,8 +983,8 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -993,4 +1007,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="14.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>